--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ngf</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ngf</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H2">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I2">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J2">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N2">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O2">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P2">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q2">
-        <v>0.167041311519</v>
+        <v>0.1466694004933333</v>
       </c>
       <c r="R2">
-        <v>1.503371803671</v>
+        <v>1.32002460444</v>
       </c>
       <c r="S2">
-        <v>0.0005664126394567972</v>
+        <v>0.007539250993911038</v>
       </c>
       <c r="T2">
-        <v>0.001181088799574251</v>
+        <v>0.01355549242879817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H3">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I3">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J3">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P3">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q3">
-        <v>0.08620685201099999</v>
+        <v>0.163726968566</v>
       </c>
       <c r="R3">
-        <v>0.7758616680989999</v>
+        <v>1.473542717094</v>
       </c>
       <c r="S3">
-        <v>0.0002923148180697685</v>
+        <v>0.00841606160752913</v>
       </c>
       <c r="T3">
-        <v>0.0006095375235674312</v>
+        <v>0.01513198850831445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H4">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I4">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J4">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N4">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O4">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P4">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q4">
-        <v>13.312521002811</v>
+        <v>0.3936589585953334</v>
       </c>
       <c r="R4">
-        <v>79.87512601686599</v>
+        <v>3.542930627358</v>
       </c>
       <c r="S4">
-        <v>0.04514081032085617</v>
+        <v>0.02023526164877693</v>
       </c>
       <c r="T4">
-        <v>0.06275201947564775</v>
+        <v>0.0363827834218915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H5">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I5">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J5">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N5">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O5">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P5">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q5">
-        <v>0.05507980096099999</v>
+        <v>6.429150913245</v>
       </c>
       <c r="R5">
-        <v>0.4957182086489999</v>
+        <v>38.57490547947</v>
       </c>
       <c r="S5">
-        <v>0.0001867675436655468</v>
+        <v>0.3304778109793229</v>
       </c>
       <c r="T5">
-        <v>0.0003894493847434658</v>
+        <v>0.3961303731837587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H6">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I6">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J6">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N6">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O6">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P6">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q6">
-        <v>0.317250507614</v>
+        <v>0.2459673216266666</v>
       </c>
       <c r="R6">
-        <v>2.855254568526</v>
+        <v>1.47580392976</v>
       </c>
       <c r="S6">
-        <v>0.001075750039032801</v>
+        <v>0.01264346460683714</v>
       </c>
       <c r="T6">
-        <v>0.002243163788614776</v>
+        <v>0.01515520917486169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H7">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I7">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J7">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +874,22 @@
         <v>0.271551</v>
       </c>
       <c r="O7">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P7">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q7">
-        <v>0.163726968566</v>
+        <v>0.274573181596</v>
       </c>
       <c r="R7">
-        <v>1.473542717094</v>
+        <v>1.647439089576</v>
       </c>
       <c r="S7">
-        <v>0.0005551741875852061</v>
+        <v>0.01411389236804749</v>
       </c>
       <c r="T7">
-        <v>0.001157654277274712</v>
+        <v>0.01691775140443504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H8">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I8">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J8">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N8">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O8">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P8">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q8">
-        <v>25.283590073366</v>
+        <v>0.6601734196386667</v>
       </c>
       <c r="R8">
-        <v>151.701540440196</v>
+        <v>3.961040517832</v>
       </c>
       <c r="S8">
-        <v>0.08573295347223127</v>
+        <v>0.03393491139544611</v>
       </c>
       <c r="T8">
-        <v>0.1191807574510598</v>
+        <v>0.04067640449203085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +965,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H9">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I9">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J9">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N9">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O9">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P9">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q9">
-        <v>0.1046094205993333</v>
+        <v>10.78180605597</v>
       </c>
       <c r="R9">
-        <v>0.9414847853939999</v>
+        <v>43.12722422388</v>
       </c>
       <c r="S9">
-        <v>0.0003547152347817568</v>
+        <v>0.5542174560625047</v>
       </c>
       <c r="T9">
-        <v>0.0007396554413772731</v>
+        <v>0.4428786853483678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1027,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H10">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I10">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J10">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N10">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O10">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P10">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q10">
-        <v>3.132393047826</v>
+        <v>0.007368858948888888</v>
       </c>
       <c r="R10">
-        <v>18.794358286956</v>
+        <v>0.06631973054</v>
       </c>
       <c r="S10">
-        <v>0.01062148637304873</v>
+        <v>0.0003787816474843095</v>
       </c>
       <c r="T10">
-        <v>0.01476534681155098</v>
+        <v>0.0006810453397543222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H11">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I11">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J11">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1122,22 @@
         <v>0.271551</v>
       </c>
       <c r="O11">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P11">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q11">
-        <v>1.616568628794</v>
+        <v>0.008225853064333334</v>
       </c>
       <c r="R11">
-        <v>9.699411772764</v>
+        <v>0.07403267757900001</v>
       </c>
       <c r="S11">
-        <v>0.005481547621793641</v>
+        <v>0.0004228337382060829</v>
       </c>
       <c r="T11">
-        <v>0.007620115382832608</v>
+        <v>0.0007602505264146427</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H12">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I12">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J12">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N12">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O12">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P12">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q12">
-        <v>249.639133331994</v>
+        <v>0.01977793138922222</v>
       </c>
       <c r="R12">
-        <v>998.556533327976</v>
+        <v>0.178001382503</v>
       </c>
       <c r="S12">
-        <v>0.8464897643371218</v>
+        <v>0.001016645519666357</v>
       </c>
       <c r="T12">
-        <v>0.7844925216606382</v>
+        <v>0.001827917740865639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H13">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I13">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J13">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N13">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O13">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P13">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q13">
-        <v>1.032867762094</v>
+        <v>0.3230087944825</v>
       </c>
       <c r="R13">
-        <v>6.197206572563999</v>
+        <v>1.938052766895</v>
       </c>
       <c r="S13">
-        <v>0.003502303412356494</v>
+        <v>0.01660362943226788</v>
       </c>
       <c r="T13">
-        <v>0.004868690003118532</v>
+        <v>0.01990209843050744</v>
       </c>
     </row>
   </sheetData>
